--- a/Code/Results/Cases/Case_5_254/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_254/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.117862761042431</v>
+        <v>0.8163891899954194</v>
       </c>
       <c r="C2">
-        <v>0.1112892376191823</v>
+        <v>0.1363548090420679</v>
       </c>
       <c r="D2">
-        <v>0.07975197966137415</v>
+        <v>0.112408321696833</v>
       </c>
       <c r="E2">
-        <v>0.06032481518478328</v>
+        <v>0.135349934076336</v>
       </c>
       <c r="F2">
-        <v>1.022194511371346</v>
+        <v>2.131864999578376</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07661369411027508</v>
+        <v>0.190852553655283</v>
       </c>
       <c r="K2">
-        <v>0.9061773851248915</v>
+        <v>0.4121628667787718</v>
       </c>
       <c r="L2">
-        <v>0.182331417912458</v>
+        <v>0.2484800205762738</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.712685363712353</v>
+        <v>5.740659178069734</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9754054813373045</v>
+        <v>0.7785231929974827</v>
       </c>
       <c r="C3">
-        <v>0.1096219334971806</v>
+        <v>0.1356897337922049</v>
       </c>
       <c r="D3">
-        <v>0.07145213556850649</v>
+        <v>0.1105904294790747</v>
       </c>
       <c r="E3">
-        <v>0.05817826186995312</v>
+        <v>0.135445654879554</v>
       </c>
       <c r="F3">
-        <v>1.00945775478074</v>
+        <v>2.141136752964265</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07745813221929865</v>
+        <v>0.1919772027742077</v>
       </c>
       <c r="K3">
-        <v>0.7874986287213233</v>
+        <v>0.3778670620411333</v>
       </c>
       <c r="L3">
-        <v>0.1637004166115332</v>
+        <v>0.2445345036907725</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.709029913860633</v>
+        <v>5.773909290133986</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8883419564620283</v>
+        <v>0.7555567052488641</v>
       </c>
       <c r="C4">
-        <v>0.1086158157188706</v>
+        <v>0.1352854131625705</v>
       </c>
       <c r="D4">
-        <v>0.06640082077222331</v>
+        <v>0.1095130407305192</v>
       </c>
       <c r="E4">
-        <v>0.05692254912623618</v>
+        <v>0.1355497092653319</v>
       </c>
       <c r="F4">
-        <v>1.003222073162434</v>
+        <v>2.14773974851235</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07806650793147085</v>
+        <v>0.1927271816332912</v>
       </c>
       <c r="K4">
-        <v>0.7147710666095151</v>
+        <v>0.3568920994118514</v>
       </c>
       <c r="L4">
-        <v>0.1523877830221494</v>
+        <v>0.2422055216403365</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.71125895061013</v>
+        <v>5.7968059251113</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.852950580621382</v>
+        <v>0.746269661794031</v>
       </c>
       <c r="C5">
-        <v>0.1082100793639071</v>
+        <v>0.1351216867546796</v>
       </c>
       <c r="D5">
-        <v>0.06435284846578071</v>
+        <v>0.1090838145701483</v>
       </c>
       <c r="E5">
-        <v>0.05642597799386806</v>
+        <v>0.1356035281035144</v>
       </c>
       <c r="F5">
-        <v>1.001065069642095</v>
+        <v>2.150659589764643</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07833651506246753</v>
+        <v>0.1930477720003552</v>
       </c>
       <c r="K5">
-        <v>0.6851588034467255</v>
+        <v>0.3483660032231199</v>
       </c>
       <c r="L5">
-        <v>0.1478073912146343</v>
+        <v>0.241280089020151</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.713252447595124</v>
+        <v>5.806760723277506</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8470787639620312</v>
+        <v>0.7447319245638653</v>
       </c>
       <c r="C6">
-        <v>0.1081429601929997</v>
+        <v>0.1350945634270815</v>
       </c>
       <c r="D6">
-        <v>0.06401339482872714</v>
+        <v>0.1090131366983513</v>
       </c>
       <c r="E6">
-        <v>0.05634442257879257</v>
+        <v>0.1356131550351307</v>
       </c>
       <c r="F6">
-        <v>1.000729690518511</v>
+        <v>2.151158268573923</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07838266910008684</v>
+        <v>0.1931019104364839</v>
       </c>
       <c r="K6">
-        <v>0.6802429039245794</v>
+        <v>0.3469515584799154</v>
       </c>
       <c r="L6">
-        <v>0.1470485432115822</v>
+        <v>0.2411278532071819</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.713647880401652</v>
+        <v>5.808451423383886</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8878643191853826</v>
+        <v>0.7554311644953771</v>
       </c>
       <c r="C7">
-        <v>0.1086103267552829</v>
+        <v>0.1352832008601794</v>
       </c>
       <c r="D7">
-        <v>0.06637315968587387</v>
+        <v>0.1095072122000573</v>
       </c>
       <c r="E7">
-        <v>0.05691579155223003</v>
+        <v>0.1355503888234839</v>
       </c>
       <c r="F7">
-        <v>1.00319144643943</v>
+        <v>2.147778198746117</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07807006056521359</v>
+        <v>0.1927314445945427</v>
       </c>
       <c r="K7">
-        <v>0.714371618665183</v>
+        <v>0.3567770262327201</v>
       </c>
       <c r="L7">
-        <v>0.1523258933737068</v>
+        <v>0.2421929450360736</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.711281493014184</v>
+        <v>5.79693765100086</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.068650347356368</v>
+        <v>0.8032745992379091</v>
       </c>
       <c r="C8">
-        <v>0.1107105917267575</v>
+        <v>0.1361246659009652</v>
       </c>
       <c r="D8">
-        <v>0.07688039826577864</v>
+        <v>0.1117734942705084</v>
       </c>
       <c r="E8">
-        <v>0.0595714367831004</v>
+        <v>0.1353735578866022</v>
       </c>
       <c r="F8">
-        <v>1.017465071676135</v>
+        <v>2.134873135262637</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07688588345337521</v>
+        <v>0.1912280087187845</v>
       </c>
       <c r="K8">
-        <v>0.8652208059587281</v>
+        <v>0.4003208068206163</v>
       </c>
       <c r="L8">
-        <v>0.1758796841216395</v>
+        <v>0.2471002505861861</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.710471954906495</v>
+        <v>5.751609125904878</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.427094992240825</v>
+        <v>0.8993173966393044</v>
       </c>
       <c r="C9">
-        <v>0.1149773196285224</v>
+        <v>0.1378059466874006</v>
       </c>
       <c r="D9">
-        <v>0.09787957450832607</v>
+        <v>0.116523202973724</v>
       </c>
       <c r="E9">
-        <v>0.06529827574872726</v>
+        <v>0.1353848802571562</v>
       </c>
       <c r="F9">
-        <v>1.058717516042975</v>
+        <v>2.116779194887343</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07530135235187174</v>
+        <v>0.1887504721535933</v>
       </c>
       <c r="K9">
-        <v>1.162693268000737</v>
+        <v>0.4863472631278682</v>
       </c>
       <c r="L9">
-        <v>0.2231877458599882</v>
+        <v>0.2574616504627016</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.746274801898863</v>
+        <v>5.682390175139574</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.693902235611461</v>
+        <v>0.9712067489253684</v>
       </c>
       <c r="C10">
-        <v>0.1182154420378794</v>
+        <v>0.1390591594661572</v>
       </c>
       <c r="D10">
-        <v>0.113606957598634</v>
+        <v>0.1201963663013714</v>
       </c>
       <c r="E10">
-        <v>0.06985936992519726</v>
+        <v>0.1356100221079721</v>
       </c>
       <c r="F10">
-        <v>1.098126143274612</v>
+        <v>2.10787296037374</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07462280064343574</v>
+        <v>0.1872159293009439</v>
       </c>
       <c r="K10">
-        <v>1.383068105125659</v>
+        <v>0.5499193840906003</v>
       </c>
       <c r="L10">
-        <v>0.2587964369722471</v>
+        <v>0.2655193970173428</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.798169809979328</v>
+        <v>5.643509214705944</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.816286293002463</v>
+        <v>1.004193762961307</v>
       </c>
       <c r="C11">
-        <v>0.1197142266753772</v>
+        <v>0.1396329762818738</v>
       </c>
       <c r="D11">
-        <v>0.1208407662598461</v>
+        <v>0.1219066955649595</v>
       </c>
       <c r="E11">
-        <v>0.07201990376925949</v>
+        <v>0.1357592229804006</v>
       </c>
       <c r="F11">
-        <v>1.118271567252904</v>
+        <v>2.104772013469812</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07442807704975962</v>
+        <v>0.1865796027800393</v>
       </c>
       <c r="K11">
-        <v>1.483913060918184</v>
+        <v>0.5789161876818127</v>
       </c>
       <c r="L11">
-        <v>0.2752210498347978</v>
+        <v>0.2692808023836335</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.828000329015396</v>
+        <v>5.628417951334768</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.862797918352243</v>
+        <v>1.016725329855916</v>
       </c>
       <c r="C12">
-        <v>0.1202857697005157</v>
+        <v>0.1398507815740899</v>
       </c>
       <c r="D12">
-        <v>0.1235926512453176</v>
+        <v>0.1225599617790323</v>
       </c>
       <c r="E12">
-        <v>0.07285113563234091</v>
+        <v>0.1358224212378296</v>
       </c>
       <c r="F12">
-        <v>1.126240665239763</v>
+        <v>2.103734270774737</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.07437149108356778</v>
+        <v>0.1863475007571083</v>
       </c>
       <c r="K12">
-        <v>1.522203148502371</v>
+        <v>0.5899072071808291</v>
       </c>
       <c r="L12">
-        <v>0.2814766764274168</v>
+        <v>0.2707188374277649</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.840250949956157</v>
+        <v>5.623076264522922</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.852772994663411</v>
+        <v>1.014024661380859</v>
       </c>
       <c r="C13">
-        <v>0.1201624956266087</v>
+        <v>0.1398038508273984</v>
       </c>
       <c r="D13">
-        <v>0.1229994034218862</v>
+        <v>0.1224190210695895</v>
       </c>
       <c r="E13">
-        <v>0.07267152029749724</v>
+        <v>0.1358085128649442</v>
       </c>
       <c r="F13">
-        <v>1.124508876934001</v>
+        <v>2.103951698212967</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.07438290230690825</v>
+        <v>0.1863970942669511</v>
       </c>
       <c r="K13">
-        <v>1.513951864440088</v>
+        <v>0.5875396342049726</v>
       </c>
       <c r="L13">
-        <v>0.2801277569462002</v>
+        <v>0.2704085246296586</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.837569116137558</v>
+        <v>5.624210104757111</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.820109345475572</v>
+        <v>1.005223943210098</v>
       </c>
       <c r="C14">
-        <v>0.1197611662676863</v>
+        <v>0.1396508850919531</v>
       </c>
       <c r="D14">
-        <v>0.1210669058906859</v>
+        <v>0.1219603282611814</v>
       </c>
       <c r="E14">
-        <v>0.07208802291246386</v>
+        <v>0.1357642882397805</v>
       </c>
       <c r="F14">
-        <v>1.118920237913116</v>
+        <v>2.104683902682766</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.07442307337157672</v>
+        <v>0.1865603301207734</v>
       </c>
       <c r="K14">
-        <v>1.487061059344029</v>
+        <v>0.5798202172127844</v>
       </c>
       <c r="L14">
-        <v>0.2757349620541873</v>
+        <v>0.2693988370463245</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.828988710054659</v>
+        <v>5.627971012484721</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.800124400215509</v>
+        <v>0.9998384488266367</v>
       </c>
       <c r="C15">
-        <v>0.1195158683652409</v>
+        <v>0.1395572553574027</v>
       </c>
       <c r="D15">
-        <v>0.1198848727752448</v>
+        <v>0.1216800933215865</v>
       </c>
       <c r="E15">
-        <v>0.07173234150899077</v>
+        <v>0.1357380709685856</v>
       </c>
       <c r="F15">
-        <v>1.115542036813878</v>
+        <v>2.10515017281368</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.07444993657246712</v>
+        <v>0.1866614702342417</v>
       </c>
       <c r="K15">
-        <v>1.470603502716358</v>
+        <v>0.575093209099748</v>
       </c>
       <c r="L15">
-        <v>0.2730490417430644</v>
+        <v>0.2687821513302993</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.823859101277833</v>
+        <v>5.630323251768317</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.685926351434375</v>
+        <v>0.9690566230878517</v>
       </c>
       <c r="C16">
-        <v>0.1181180346834552</v>
+        <v>0.1390217322229859</v>
       </c>
       <c r="D16">
-        <v>0.1131359075662175</v>
+        <v>0.1200853795254062</v>
       </c>
       <c r="E16">
-        <v>0.06971996212002551</v>
+        <v>0.135601210458276</v>
       </c>
       <c r="F16">
-        <v>1.096856031666789</v>
+        <v>2.108094727519941</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07463788355107681</v>
+        <v>0.187258755673426</v>
       </c>
       <c r="K16">
-        <v>1.376491027576748</v>
+        <v>0.5480258844236801</v>
       </c>
       <c r="L16">
-        <v>0.2577278901064091</v>
+        <v>0.2652754999739955</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.796350538577485</v>
+        <v>5.644547679711877</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.616143854116444</v>
+        <v>0.9502452119734812</v>
       </c>
       <c r="C17">
-        <v>0.1172672971289259</v>
+        <v>0.1386941440702216</v>
       </c>
       <c r="D17">
-        <v>0.1090167781794378</v>
+        <v>0.1191171182201742</v>
       </c>
       <c r="E17">
-        <v>0.06850790327475664</v>
+        <v>0.1355292130799448</v>
       </c>
       <c r="F17">
-        <v>1.085975738446692</v>
+        <v>2.110144453695739</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.07478289731501775</v>
+        <v>0.1876409725559967</v>
       </c>
       <c r="K17">
-        <v>1.318920033766943</v>
+        <v>0.5314403941826811</v>
       </c>
       <c r="L17">
-        <v>0.2483891519502635</v>
+        <v>0.2631487607042544</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.781109913904544</v>
+        <v>5.653938603798593</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.576100667565584</v>
+        <v>0.9394521804697717</v>
       </c>
       <c r="C18">
-        <v>0.1167803803281871</v>
+        <v>0.1385060758654006</v>
       </c>
       <c r="D18">
-        <v>0.1066549560962784</v>
+        <v>0.118563911114876</v>
       </c>
       <c r="E18">
-        <v>0.06781877391911451</v>
+        <v>0.1354922071839724</v>
       </c>
       <c r="F18">
-        <v>1.079925101210506</v>
+        <v>2.111412881729692</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07487698237406804</v>
+        <v>0.1878666263610178</v>
       </c>
       <c r="K18">
-        <v>1.285861685764274</v>
+        <v>0.521908191134969</v>
       </c>
       <c r="L18">
-        <v>0.2430388103287555</v>
+        <v>0.2619345497112988</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.772925862239674</v>
+        <v>5.659584365652819</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.562558211821312</v>
+        <v>0.9358024708085964</v>
       </c>
       <c r="C19">
-        <v>0.1166159234854192</v>
+        <v>0.1384424603097898</v>
       </c>
       <c r="D19">
-        <v>0.105856518431068</v>
+        <v>0.1183772439974149</v>
       </c>
       <c r="E19">
-        <v>0.06758680061353672</v>
+        <v>0.1354804350613712</v>
       </c>
       <c r="F19">
-        <v>1.077911453435476</v>
+        <v>2.111857723036721</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.07491064926251667</v>
+        <v>0.1879440277535203</v>
       </c>
       <c r="K19">
-        <v>1.274677649259644</v>
+        <v>0.5186820282753217</v>
       </c>
       <c r="L19">
-        <v>0.2412307905706257</v>
+        <v>0.2615249937677504</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.770253086800494</v>
+        <v>5.661537898328845</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.623562452353241</v>
+        <v>0.9522449512086268</v>
       </c>
       <c r="C20">
-        <v>0.1173576087183861</v>
+        <v>0.1387289801362996</v>
       </c>
       <c r="D20">
-        <v>0.1094544931176102</v>
+        <v>0.1192198076485766</v>
       </c>
       <c r="E20">
-        <v>0.06863609411979255</v>
+        <v>0.1355364216178465</v>
       </c>
       <c r="F20">
-        <v>1.087112346211796</v>
+        <v>2.109916997244937</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07476634994762676</v>
+        <v>0.1875996834464893</v>
       </c>
       <c r="K20">
-        <v>1.325042758786623</v>
+        <v>0.5332051933442301</v>
       </c>
       <c r="L20">
-        <v>0.2493810731953374</v>
+        <v>0.2633742216802801</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.78267165643129</v>
+        <v>5.652913636230721</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.829698724195282</v>
+        <v>1.007807845237608</v>
       </c>
       <c r="C21">
-        <v>0.1198789358689041</v>
+        <v>0.1396958010813094</v>
       </c>
       <c r="D21">
-        <v>0.1216341754463741</v>
+        <v>0.1220949059284493</v>
       </c>
       <c r="E21">
-        <v>0.07225904877069667</v>
+        <v>0.1357770964961773</v>
       </c>
       <c r="F21">
-        <v>1.120552337872653</v>
+        <v>2.104465132748132</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.07441080230357144</v>
+        <v>0.1865121434495585</v>
       </c>
       <c r="K21">
-        <v>1.494956625261096</v>
+        <v>0.582087315211993</v>
       </c>
       <c r="L21">
-        <v>0.2770242268956906</v>
+        <v>0.2696950366310062</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.8314825840053</v>
+        <v>5.626856220217491</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.965408004703818</v>
+        <v>1.044354791962178</v>
       </c>
       <c r="C22">
-        <v>0.1215501514702169</v>
+        <v>0.1403306563405735</v>
       </c>
       <c r="D22">
-        <v>0.129668349012519</v>
+        <v>0.1240065706503799</v>
       </c>
       <c r="E22">
-        <v>0.0747035189488976</v>
+        <v>0.1359734260365535</v>
       </c>
       <c r="F22">
-        <v>1.144402864338815</v>
+        <v>2.101697680817736</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.07427879818181182</v>
+        <v>0.1858530138104619</v>
       </c>
       <c r="K22">
-        <v>1.606610057013199</v>
+        <v>0.614095883458333</v>
       </c>
       <c r="L22">
-        <v>0.295302153891484</v>
+        <v>0.2739056939461761</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.868977377974431</v>
+        <v>5.61200048669491</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.892879404402521</v>
+        <v>1.024827896290134</v>
       </c>
       <c r="C23">
-        <v>0.1206559523371737</v>
+        <v>0.1399915565678569</v>
       </c>
       <c r="D23">
-        <v>0.1253731691950861</v>
+        <v>0.1229833148976383</v>
       </c>
       <c r="E23">
-        <v>0.07339157830006116</v>
+        <v>0.1358650788911682</v>
       </c>
       <c r="F23">
-        <v>1.131483297097333</v>
+        <v>2.103101975022952</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.07433980081075475</v>
+        <v>0.186200084438024</v>
       </c>
       <c r="K23">
-        <v>1.546957325361973</v>
+        <v>0.5970068954898125</v>
       </c>
       <c r="L23">
-        <v>0.2855263103789696</v>
+        <v>0.2716511385671225</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.848433040835033</v>
+        <v>5.619730401522958</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.620208269935887</v>
+        <v>0.9513408008294562</v>
       </c>
       <c r="C24">
-        <v>0.1173167720685058</v>
+        <v>0.1387132299187854</v>
       </c>
       <c r="D24">
-        <v>0.1092565825968137</v>
+        <v>0.1191733709785439</v>
       </c>
       <c r="E24">
-        <v>0.0685781151140219</v>
+        <v>0.1355331489730318</v>
       </c>
       <c r="F24">
-        <v>1.086597850201031</v>
+        <v>2.110019549906667</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07477379769570547</v>
+        <v>0.1876183318356226</v>
       </c>
       <c r="K24">
-        <v>1.322274551512805</v>
+        <v>0.5324073182047755</v>
       </c>
       <c r="L24">
-        <v>0.24893256785289</v>
+        <v>0.2632722643516416</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.781963796789881</v>
+        <v>5.653376255291874</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.329600415882709</v>
+        <v>0.8731002884532586</v>
       </c>
       <c r="C25">
-        <v>0.1138059215203455</v>
+        <v>0.1373478857392882</v>
       </c>
       <c r="D25">
-        <v>0.09215066156469476</v>
+        <v>0.1152058520579402</v>
       </c>
       <c r="E25">
-        <v>0.06368974176411513</v>
+        <v>0.1353436344023997</v>
       </c>
       <c r="F25">
-        <v>1.046036873770255</v>
+        <v>2.120902909898341</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07564746834715308</v>
+        <v>0.1893704493169786</v>
       </c>
       <c r="K25">
-        <v>1.081961230475287</v>
+        <v>0.4630086826598472</v>
       </c>
       <c r="L25">
-        <v>0.2102530406961165</v>
+        <v>0.2545800857198373</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.732308419655283</v>
+        <v>5.699011697198898</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_254/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_254/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8163891899954194</v>
+        <v>1.117862761042574</v>
       </c>
       <c r="C2">
-        <v>0.1363548090420679</v>
+        <v>0.1112892376194168</v>
       </c>
       <c r="D2">
-        <v>0.112408321696833</v>
+        <v>0.07975197966113257</v>
       </c>
       <c r="E2">
-        <v>0.135349934076336</v>
+        <v>0.06032481518479393</v>
       </c>
       <c r="F2">
-        <v>2.131864999578376</v>
+        <v>1.022194511371339</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.190852553655283</v>
+        <v>0.07661369411020758</v>
       </c>
       <c r="K2">
-        <v>0.4121628667787718</v>
+        <v>0.9061773851248915</v>
       </c>
       <c r="L2">
-        <v>0.2484800205762738</v>
+        <v>0.1823314179124651</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>5.740659178069734</v>
+        <v>2.712685363712382</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7785231929974827</v>
+        <v>0.9754054813373045</v>
       </c>
       <c r="C3">
-        <v>0.1356897337922049</v>
+        <v>0.1096219334974364</v>
       </c>
       <c r="D3">
-        <v>0.1105904294790747</v>
+        <v>0.07145213556832886</v>
       </c>
       <c r="E3">
-        <v>0.135445654879554</v>
+        <v>0.0581782618699247</v>
       </c>
       <c r="F3">
-        <v>2.141136752964265</v>
+        <v>1.00945775478074</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1919772027742077</v>
+        <v>0.07745813221914233</v>
       </c>
       <c r="K3">
-        <v>0.3778670620411333</v>
+        <v>0.7874986287213801</v>
       </c>
       <c r="L3">
-        <v>0.2445345036907725</v>
+        <v>0.1637004166114906</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>5.773909290133986</v>
+        <v>2.709029913860633</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7555567052488641</v>
+        <v>0.8883419564619146</v>
       </c>
       <c r="C4">
-        <v>0.1352854131625705</v>
+        <v>0.1086158157185437</v>
       </c>
       <c r="D4">
-        <v>0.1095130407305192</v>
+        <v>0.0664008207723441</v>
       </c>
       <c r="E4">
-        <v>0.1355497092653319</v>
+        <v>0.05692254912623795</v>
       </c>
       <c r="F4">
-        <v>2.14773974851235</v>
+        <v>1.003222073162426</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1927271816332912</v>
+        <v>0.07806650793153125</v>
       </c>
       <c r="K4">
-        <v>0.3568920994118514</v>
+        <v>0.7147710666095293</v>
       </c>
       <c r="L4">
-        <v>0.2422055216403365</v>
+        <v>0.1523877830222702</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>5.7968059251113</v>
+        <v>2.711258950610159</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.746269661794031</v>
+        <v>0.8529505806215241</v>
       </c>
       <c r="C5">
-        <v>0.1351216867546796</v>
+        <v>0.1082100793637437</v>
       </c>
       <c r="D5">
-        <v>0.1090838145701483</v>
+        <v>0.06435284846562439</v>
       </c>
       <c r="E5">
-        <v>0.1356035281035144</v>
+        <v>0.05642597799387339</v>
       </c>
       <c r="F5">
-        <v>2.150659589764643</v>
+        <v>1.001065069642088</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1930477720003552</v>
+        <v>0.07833651506244443</v>
       </c>
       <c r="K5">
-        <v>0.3483660032231199</v>
+        <v>0.6851588034466971</v>
       </c>
       <c r="L5">
-        <v>0.241280089020151</v>
+        <v>0.1478073912146272</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>5.806760723277506</v>
+        <v>2.713252447595124</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7447319245638653</v>
+        <v>0.8470787639620312</v>
       </c>
       <c r="C6">
-        <v>0.1350945634270815</v>
+        <v>0.1081429601934829</v>
       </c>
       <c r="D6">
-        <v>0.1090131366983513</v>
+        <v>0.06401339482896873</v>
       </c>
       <c r="E6">
-        <v>0.1356131550351307</v>
+        <v>0.05634442257877836</v>
       </c>
       <c r="F6">
-        <v>2.151158268573923</v>
+        <v>1.000729690518547</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1931019104364839</v>
+        <v>0.07838266910020408</v>
       </c>
       <c r="K6">
-        <v>0.3469515584799154</v>
+        <v>0.6802429039245936</v>
       </c>
       <c r="L6">
-        <v>0.2411278532071819</v>
+        <v>0.147048543211568</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>5.808451423383886</v>
+        <v>2.713647880401624</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7554311644953771</v>
+        <v>0.887864319185411</v>
       </c>
       <c r="C7">
-        <v>0.1352832008601794</v>
+        <v>0.1086103267552829</v>
       </c>
       <c r="D7">
-        <v>0.1095072122000573</v>
+        <v>0.06637315968591651</v>
       </c>
       <c r="E7">
-        <v>0.1355503888234839</v>
+        <v>0.05691579155225845</v>
       </c>
       <c r="F7">
-        <v>2.147778198746117</v>
+        <v>1.003191446439452</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1927314445945427</v>
+        <v>0.07807006056520649</v>
       </c>
       <c r="K7">
-        <v>0.3567770262327201</v>
+        <v>0.7143716186653393</v>
       </c>
       <c r="L7">
-        <v>0.2421929450360736</v>
+        <v>0.1523258933736642</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>5.79693765100086</v>
+        <v>2.711281493014212</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8032745992379091</v>
+        <v>1.068650347356311</v>
       </c>
       <c r="C8">
-        <v>0.1361246659009652</v>
+        <v>0.1107105917266082</v>
       </c>
       <c r="D8">
-        <v>0.1117734942705084</v>
+        <v>0.07688039826566495</v>
       </c>
       <c r="E8">
-        <v>0.1353735578866022</v>
+        <v>0.05957143678307553</v>
       </c>
       <c r="F8">
-        <v>2.134873135262637</v>
+        <v>1.017465071676106</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1912280087187845</v>
+        <v>0.07688588345346759</v>
       </c>
       <c r="K8">
-        <v>0.4003208068206163</v>
+        <v>0.8652208059586997</v>
       </c>
       <c r="L8">
-        <v>0.2471002505861861</v>
+        <v>0.1758796841216039</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>5.751609125904878</v>
+        <v>2.71047195490641</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8993173966393044</v>
+        <v>1.427094992240939</v>
       </c>
       <c r="C9">
-        <v>0.1378059466874006</v>
+        <v>0.1149773196285153</v>
       </c>
       <c r="D9">
-        <v>0.116523202973724</v>
+        <v>0.09787957450811291</v>
       </c>
       <c r="E9">
-        <v>0.1353848802571562</v>
+        <v>0.06529827574872726</v>
       </c>
       <c r="F9">
-        <v>2.116779194887343</v>
+        <v>1.058717516042968</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1887504721535933</v>
+        <v>0.07530135235190372</v>
       </c>
       <c r="K9">
-        <v>0.4863472631278682</v>
+        <v>1.16269326800068</v>
       </c>
       <c r="L9">
-        <v>0.2574616504627016</v>
+        <v>0.2231877458599314</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>5.682390175139574</v>
+        <v>2.74627480189875</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9712067489253684</v>
+        <v>1.693902235611546</v>
       </c>
       <c r="C10">
-        <v>0.1390591594661572</v>
+        <v>0.1182154420380073</v>
       </c>
       <c r="D10">
-        <v>0.1201963663013714</v>
+        <v>0.1136069575986483</v>
       </c>
       <c r="E10">
-        <v>0.1356100221079721</v>
+        <v>0.0698593699251866</v>
       </c>
       <c r="F10">
-        <v>2.10787296037374</v>
+        <v>1.098126143274612</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1872159293009439</v>
+        <v>0.07462280064339666</v>
       </c>
       <c r="K10">
-        <v>0.5499193840906003</v>
+        <v>1.383068105125687</v>
       </c>
       <c r="L10">
-        <v>0.2655193970173428</v>
+        <v>0.2587964369722187</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>5.643509214705944</v>
+        <v>2.798169809979299</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.004193762961307</v>
+        <v>1.816286293002577</v>
       </c>
       <c r="C11">
-        <v>0.1396329762818738</v>
+        <v>0.119714226675633</v>
       </c>
       <c r="D11">
-        <v>0.1219066955649595</v>
+        <v>0.1208407662598461</v>
       </c>
       <c r="E11">
-        <v>0.1357592229804006</v>
+        <v>0.0720199037692737</v>
       </c>
       <c r="F11">
-        <v>2.104772013469812</v>
+        <v>1.118271567252904</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1865796027800393</v>
+        <v>0.07442807704966725</v>
       </c>
       <c r="K11">
-        <v>0.5789161876818127</v>
+        <v>1.48391306091807</v>
       </c>
       <c r="L11">
-        <v>0.2692808023836335</v>
+        <v>0.2752210498347978</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>5.628417951334768</v>
+        <v>2.828000329015367</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.016725329855916</v>
+        <v>1.862797918352157</v>
       </c>
       <c r="C12">
-        <v>0.1398507815740899</v>
+        <v>0.1202857697007502</v>
       </c>
       <c r="D12">
-        <v>0.1225599617790323</v>
+        <v>0.1235926512453887</v>
       </c>
       <c r="E12">
-        <v>0.1358224212378296</v>
+        <v>0.07285113563235868</v>
       </c>
       <c r="F12">
-        <v>2.103734270774737</v>
+        <v>1.126240665239763</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1863475007571083</v>
+        <v>0.07437149108358554</v>
       </c>
       <c r="K12">
-        <v>0.5899072071808291</v>
+        <v>1.522203148502371</v>
       </c>
       <c r="L12">
-        <v>0.2707188374277649</v>
+        <v>0.2814766764275731</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>5.623076264522922</v>
+        <v>2.840250949956129</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.014024661380859</v>
+        <v>1.852772994663383</v>
       </c>
       <c r="C13">
-        <v>0.1398038508273984</v>
+        <v>0.1201624956266016</v>
       </c>
       <c r="D13">
-        <v>0.1224190210695895</v>
+        <v>0.1229994034219857</v>
       </c>
       <c r="E13">
-        <v>0.1358085128649442</v>
+        <v>0.072671520297515</v>
       </c>
       <c r="F13">
-        <v>2.103951698212967</v>
+        <v>1.124508876933987</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1863970942669511</v>
+        <v>0.07438290230688693</v>
       </c>
       <c r="K13">
-        <v>0.5875396342049726</v>
+        <v>1.51395186444006</v>
       </c>
       <c r="L13">
-        <v>0.2704085246296586</v>
+        <v>0.2801277569460865</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>5.624210104757111</v>
+        <v>2.83756911613753</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.005223943210098</v>
+        <v>1.82010934547543</v>
       </c>
       <c r="C14">
-        <v>0.1396508850919531</v>
+        <v>0.1197611662676934</v>
       </c>
       <c r="D14">
-        <v>0.1219603282611814</v>
+        <v>0.1210669058906859</v>
       </c>
       <c r="E14">
-        <v>0.1357642882397805</v>
+        <v>0.0720880229124532</v>
       </c>
       <c r="F14">
-        <v>2.104683902682766</v>
+        <v>1.118920237913102</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1865603301207734</v>
+        <v>0.07442307337171172</v>
       </c>
       <c r="K14">
-        <v>0.5798202172127844</v>
+        <v>1.487061059343972</v>
       </c>
       <c r="L14">
-        <v>0.2693988370463245</v>
+        <v>0.2757349620543437</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>5.627971012484721</v>
+        <v>2.828988710054546</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9998384488266367</v>
+        <v>1.800124400215594</v>
       </c>
       <c r="C15">
-        <v>0.1395572553574027</v>
+        <v>0.1195158683652338</v>
       </c>
       <c r="D15">
-        <v>0.1216800933215865</v>
+        <v>0.1198848727753585</v>
       </c>
       <c r="E15">
-        <v>0.1357380709685856</v>
+        <v>0.07173234150897301</v>
       </c>
       <c r="F15">
-        <v>2.10515017281368</v>
+        <v>1.115542036813864</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1866614702342417</v>
+        <v>0.0744499365724316</v>
       </c>
       <c r="K15">
-        <v>0.575093209099748</v>
+        <v>1.470603502716386</v>
       </c>
       <c r="L15">
-        <v>0.2687821513302993</v>
+        <v>0.2730490417429792</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>5.630323251768317</v>
+        <v>2.823859101277861</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9690566230878517</v>
+        <v>1.685926351434176</v>
       </c>
       <c r="C16">
-        <v>0.1390217322229859</v>
+        <v>0.1181180346834694</v>
       </c>
       <c r="D16">
-        <v>0.1200853795254062</v>
+        <v>0.1131359075660612</v>
       </c>
       <c r="E16">
-        <v>0.135601210458276</v>
+        <v>0.06971996212000775</v>
       </c>
       <c r="F16">
-        <v>2.108094727519941</v>
+        <v>1.096856031666775</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.187258755673426</v>
+        <v>0.07463788355109102</v>
       </c>
       <c r="K16">
-        <v>0.5480258844236801</v>
+        <v>1.376491027576748</v>
       </c>
       <c r="L16">
-        <v>0.2652754999739955</v>
+        <v>0.257727890106338</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>5.644547679711877</v>
+        <v>2.796350538577457</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9502452119734812</v>
+        <v>1.616143854116416</v>
       </c>
       <c r="C17">
-        <v>0.1386941440702216</v>
+        <v>0.1172672971290609</v>
       </c>
       <c r="D17">
-        <v>0.1191171182201742</v>
+        <v>0.1090167781795657</v>
       </c>
       <c r="E17">
-        <v>0.1355292130799448</v>
+        <v>0.06850790327473888</v>
       </c>
       <c r="F17">
-        <v>2.110144453695739</v>
+        <v>1.085975738446649</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1876409725559967</v>
+        <v>0.07478289731493248</v>
       </c>
       <c r="K17">
-        <v>0.5314403941826811</v>
+        <v>1.318920033767</v>
       </c>
       <c r="L17">
-        <v>0.2631487607042544</v>
+        <v>0.2483891519503061</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>5.653938603798593</v>
+        <v>2.781109913904572</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9394521804697717</v>
+        <v>1.576100667565555</v>
       </c>
       <c r="C18">
-        <v>0.1385060758654006</v>
+        <v>0.1167803803276115</v>
       </c>
       <c r="D18">
-        <v>0.118563911114876</v>
+        <v>0.1066549560961363</v>
       </c>
       <c r="E18">
-        <v>0.1354922071839724</v>
+        <v>0.06781877391912872</v>
       </c>
       <c r="F18">
-        <v>2.111412881729692</v>
+        <v>1.079925101210506</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1878666263610178</v>
+        <v>0.07487698237396856</v>
       </c>
       <c r="K18">
-        <v>0.521908191134969</v>
+        <v>1.285861685764331</v>
       </c>
       <c r="L18">
-        <v>0.2619345497112988</v>
+        <v>0.2430388103288692</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>5.659584365652819</v>
+        <v>2.772925862239674</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9358024708085964</v>
+        <v>1.56255821182117</v>
       </c>
       <c r="C19">
-        <v>0.1384424603097898</v>
+        <v>0.1166159234854476</v>
       </c>
       <c r="D19">
-        <v>0.1183772439974149</v>
+        <v>0.1058565184312101</v>
       </c>
       <c r="E19">
-        <v>0.1354804350613712</v>
+        <v>0.06758680061354383</v>
       </c>
       <c r="F19">
-        <v>2.111857723036721</v>
+        <v>1.07791145343549</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1879440277535203</v>
+        <v>0.07491064926253799</v>
       </c>
       <c r="K19">
-        <v>0.5186820282753217</v>
+        <v>1.274677649259843</v>
       </c>
       <c r="L19">
-        <v>0.2615249937677504</v>
+        <v>0.2412307905707678</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>5.661537898328845</v>
+        <v>2.770253086800523</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9522449512086268</v>
+        <v>1.623562452353468</v>
       </c>
       <c r="C20">
-        <v>0.1387289801362996</v>
+        <v>0.1173576087186277</v>
       </c>
       <c r="D20">
-        <v>0.1192198076485766</v>
+        <v>0.1094544931174823</v>
       </c>
       <c r="E20">
-        <v>0.1355364216178465</v>
+        <v>0.06863609411977123</v>
       </c>
       <c r="F20">
-        <v>2.109916997244937</v>
+        <v>1.087112346211782</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1875996834464893</v>
+        <v>0.07476634994761255</v>
       </c>
       <c r="K20">
-        <v>0.5332051933442301</v>
+        <v>1.32504275878685</v>
       </c>
       <c r="L20">
-        <v>0.2633742216802801</v>
+        <v>0.2493810731952948</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>5.652913636230721</v>
+        <v>2.782671656431347</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.007807845237608</v>
+        <v>1.829698724195396</v>
       </c>
       <c r="C21">
-        <v>0.1396958010813094</v>
+        <v>0.1198789358686696</v>
       </c>
       <c r="D21">
-        <v>0.1220949059284493</v>
+        <v>0.1216341754462746</v>
       </c>
       <c r="E21">
-        <v>0.1357770964961773</v>
+        <v>0.07225904877070377</v>
       </c>
       <c r="F21">
-        <v>2.104465132748132</v>
+        <v>1.120552337872653</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1865121434495585</v>
+        <v>0.07441080230356434</v>
       </c>
       <c r="K21">
-        <v>0.582087315211993</v>
+        <v>1.494956625261068</v>
       </c>
       <c r="L21">
-        <v>0.2696950366310062</v>
+        <v>0.2770242268956622</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>5.626856220217491</v>
+        <v>2.831482584005215</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.044354791962178</v>
+        <v>1.965408004703761</v>
       </c>
       <c r="C22">
-        <v>0.1403306563405735</v>
+        <v>0.1215501514704513</v>
       </c>
       <c r="D22">
-        <v>0.1240065706503799</v>
+        <v>0.1296683490127037</v>
       </c>
       <c r="E22">
-        <v>0.1359734260365535</v>
+        <v>0.07470351894888694</v>
       </c>
       <c r="F22">
-        <v>2.101697680817736</v>
+        <v>1.144402864338815</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1858530138104619</v>
+        <v>0.07427879818181893</v>
       </c>
       <c r="K22">
-        <v>0.614095883458333</v>
+        <v>1.606610057013171</v>
       </c>
       <c r="L22">
-        <v>0.2739056939461761</v>
+        <v>0.295302153891484</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>5.61200048669491</v>
+        <v>2.868977377974289</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.024827896290134</v>
+        <v>1.892879404402407</v>
       </c>
       <c r="C23">
-        <v>0.1399915565678569</v>
+        <v>0.1206559523371808</v>
       </c>
       <c r="D23">
-        <v>0.1229833148976383</v>
+        <v>0.1253731691949582</v>
       </c>
       <c r="E23">
-        <v>0.1358650788911682</v>
+        <v>0.07339157830005405</v>
       </c>
       <c r="F23">
-        <v>2.103101975022952</v>
+        <v>1.131483297097333</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.186200084438024</v>
+        <v>0.07433980081096436</v>
       </c>
       <c r="K23">
-        <v>0.5970068954898125</v>
+        <v>1.546957325362001</v>
       </c>
       <c r="L23">
-        <v>0.2716511385671225</v>
+        <v>0.2855263103788559</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>5.619730401522958</v>
+        <v>2.848433040835033</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9513408008294562</v>
+        <v>1.620208269935887</v>
       </c>
       <c r="C24">
-        <v>0.1387132299187854</v>
+        <v>0.1173167720687687</v>
       </c>
       <c r="D24">
-        <v>0.1191733709785439</v>
+        <v>0.109256582596629</v>
       </c>
       <c r="E24">
-        <v>0.1355331489730318</v>
+        <v>0.06857811511405032</v>
       </c>
       <c r="F24">
-        <v>2.110019549906667</v>
+        <v>1.086597850201017</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1876183318356226</v>
+        <v>0.07477379769571968</v>
       </c>
       <c r="K24">
-        <v>0.5324073182047755</v>
+        <v>1.322274551512606</v>
       </c>
       <c r="L24">
-        <v>0.2632722643516416</v>
+        <v>0.2489325678528331</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>5.653376255291874</v>
+        <v>2.781963796789739</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8731002884532586</v>
+        <v>1.329600415882794</v>
       </c>
       <c r="C25">
-        <v>0.1373478857392882</v>
+        <v>0.1138059215201963</v>
       </c>
       <c r="D25">
-        <v>0.1152058520579402</v>
+        <v>0.09215066156463791</v>
       </c>
       <c r="E25">
-        <v>0.1353436344023997</v>
+        <v>0.06368974176411513</v>
       </c>
       <c r="F25">
-        <v>2.120902909898341</v>
+        <v>1.046036873770248</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1893704493169786</v>
+        <v>0.07564746834712466</v>
       </c>
       <c r="K25">
-        <v>0.4630086826598472</v>
+        <v>1.081961230475201</v>
       </c>
       <c r="L25">
-        <v>0.2545800857198373</v>
+        <v>0.2102530406959602</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>5.699011697198898</v>
+        <v>2.732308419655226</v>
       </c>
     </row>
   </sheetData>
